--- a/target/test-classes/testdata/GasMileageTestData.xlsx
+++ b/target/test-classes/testdata/GasMileageTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Execute</t>
   </si>
@@ -54,7 +54,22 @@
     <t>PASS!</t>
   </si>
   <si>
-    <t>2020-07-23T12:40:47.088897</t>
+    <t>2020-08-31T04:22:49.921</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>42.86</t>
+  </si>
+  <si>
+    <t>FAIL!</t>
+  </si>
+  <si>
+    <t>2020-08-31T04:23:48.044</t>
+  </si>
+  <si>
+    <t>2020-08-31T04:24:19.502</t>
   </si>
 </sst>
 </file>
@@ -427,7 +442,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -469,19 +484,19 @@
         <v>120000</v>
       </c>
       <c r="D2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8">
